--- a/biology/Médecine/Glande_salivaire_labiale/Glande_salivaire_labiale.xlsx
+++ b/biology/Médecine/Glande_salivaire_labiale/Glande_salivaire_labiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glandes salivaires labiales sont des glandes salivaires mineures situées entre la membrane muqueuse et le muscle orbiculaire de la bouche autour de l'orifice buccal.
 Elles sont de forme circulaire, et de la taille d'un petits pois.
